--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenDongstagram\Documents\2. 주간보고서\1주차\일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B14527C-FF03-4B33-ADD1-0AE8328E7709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF52732C-B220-419C-B67D-C34716E9AB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="480" windowWidth="17325" windowHeight="16920" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="750" windowWidth="27225" windowHeight="14640" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2024.01.24" sheetId="2" r:id="rId3"/>
     <sheet name="2024.01.25" sheetId="4" r:id="rId4"/>
     <sheet name="2024.01.26" sheetId="5" r:id="rId5"/>
+    <sheet name="2024.01.29" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +106,18 @@
   </si>
   <si>
     <t>스토리보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스토리보드 : 디테일뷰 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리보드 : 게시글 작성/수정, 프로필 정보 수정, 계정 설정, 관리자기능(블랙리스트) 작업중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 작성/수정이 오래 걸릴것 같으므로 1/31 까지는 스토리보드 작업 해야 할듯함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,6 +321,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1342,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E0DAC7-D6B2-45D5-B1F2-F941A444273C}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1435,6 +1451,199 @@
         <v>7</v>
       </c>
       <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C856D80D-CF71-48D9-96EF-8CD380F6E400}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="10" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="5">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF52732C-B220-419C-B67D-C34716E9AB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA1D0EF-C0E3-400A-8E29-49AE98B9B466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="750" windowWidth="27225" windowHeight="14640" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="2024.01.25" sheetId="4" r:id="rId4"/>
     <sheet name="2024.01.26" sheetId="5" r:id="rId5"/>
     <sheet name="2024.01.29" sheetId="6" r:id="rId6"/>
+    <sheet name="2024.01.30" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +119,14 @@
   </si>
   <si>
     <t>게시글 작성/수정이 오래 걸릴것 같으므로 1/31 까지는 스토리보드 작업 해야 할듯함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리보드 : 게시글 작성/수정, 프로필 정보 수정, 계정 설정(차단목록, 공개유무)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리보드 : 관리자 기능(블랙 리스트 보기, 신고된 계정 보기, 차단된 게시물 보기, 신고된 게시물 보기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -310,6 +319,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -321,9 +333,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,20 +627,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -643,17 +652,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -661,17 +670,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -679,17 +688,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -697,17 +706,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -715,17 +724,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -733,17 +742,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -751,17 +760,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -797,20 +806,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -822,19 +831,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -844,19 +853,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -866,19 +875,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
@@ -888,17 +897,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -906,17 +915,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -924,17 +933,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -942,17 +951,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -987,20 +996,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1012,19 +1021,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1034,19 +1043,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1056,19 +1065,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1080,17 +1089,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -1098,17 +1107,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1116,17 +1125,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1134,17 +1143,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1180,20 +1189,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1205,19 +1214,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1227,19 +1236,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1251,17 +1260,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -1269,17 +1278,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -1287,17 +1296,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1305,17 +1314,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1323,17 +1332,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1365,20 +1374,20 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1390,19 +1399,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1412,19 +1421,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1434,19 +1443,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1456,17 +1465,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -1474,17 +1483,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1492,17 +1501,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1510,17 +1519,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1544,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C856D80D-CF71-48D9-96EF-8CD380F6E400}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1556,20 +1565,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1581,19 +1590,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1603,41 +1612,41 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="15"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1649,17 +1658,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -1667,17 +1676,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1685,17 +1694,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1703,17 +1712,208 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F583FB-C31A-4AC9-A506-843BF513E9BA}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="10" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA1D0EF-C0E3-400A-8E29-49AE98B9B466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7EDCA5-DB97-4FFF-9E30-32E6EA6DDDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6255" yWindow="645" windowWidth="25545" windowHeight="13155" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="2024.01.26" sheetId="5" r:id="rId5"/>
     <sheet name="2024.01.29" sheetId="6" r:id="rId6"/>
     <sheet name="2024.01.30" sheetId="7" r:id="rId7"/>
+    <sheet name="2024.01.31" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +128,10 @@
   </si>
   <si>
     <t>스토리보드 : 관리자 기능(블랙 리스트 보기, 신고된 계정 보기, 차단된 게시물 보기, 신고된 게시물 보기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유스케이스 다이어그램 수정 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1746,7 +1751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F583FB-C31A-4AC9-A506-843BF513E9BA}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -1843,6 +1848,191 @@
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF284F2A-54A7-45AD-AAAD-5E16B65BA436}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="10" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="2:15">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7EDCA5-DB97-4FFF-9E30-32E6EA6DDDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835C5521-8788-4309-B050-C96F2E31FEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="645" windowWidth="25545" windowHeight="13155" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="2024.01.29" sheetId="6" r:id="rId6"/>
     <sheet name="2024.01.30" sheetId="7" r:id="rId7"/>
     <sheet name="2024.01.31" sheetId="8" r:id="rId8"/>
+    <sheet name="2024.02.01" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +133,18 @@
   </si>
   <si>
     <t>유스케이스 다이어그램 수정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 명명서 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유스케이스 다이어그램 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계 (ERD)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1942,7 +1955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF284F2A-54A7-45AD-AAAD-5E16B65BA436}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:N5"/>
     </sheetView>
   </sheetViews>
@@ -2051,6 +2064,201 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0A0116-9794-4F96-8AE8-60783B3248B0}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="10" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="2:15">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835C5521-8788-4309-B050-C96F2E31FEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3349863C-D577-4903-A092-D95BD7C5051F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="705" windowWidth="23160" windowHeight="15390" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="2024.01.30" sheetId="7" r:id="rId7"/>
     <sheet name="2024.01.31" sheetId="8" r:id="rId8"/>
     <sheet name="2024.02.01" sheetId="9" r:id="rId9"/>
+    <sheet name="2024.02.02" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +146,22 @@
   </si>
   <si>
     <t>DB 설계 (ERD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토링 이후 스토리 보드 수정 및 DB 설계 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토링(이메일인증, 비밀번호 찾기 조언, 비디오 재생 조언, DB 설계 조언)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계 (ERD) 추가 작업(팔로우/팔로워 분류)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,6 +826,206 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4488DC5C-8165-4B6D-9E75-2DE9A477EA70}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="10" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O9"/>
@@ -2140,7 +2357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0A0116-9794-4F96-8AE8-60783B3248B0}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -2328,5 +2545,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3349863C-D577-4903-A092-D95BD7C5051F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49CCDD9-603C-4C6B-967D-3FD807A214DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="705" windowWidth="23160" windowHeight="15390" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="2024.01.31" sheetId="8" r:id="rId8"/>
     <sheet name="2024.02.01" sheetId="9" r:id="rId9"/>
     <sheet name="2024.02.02" sheetId="10" r:id="rId10"/>
+    <sheet name="2024.02.05" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +163,20 @@
   </si>
   <si>
     <t>DB 설계 (ERD) 추가 작업(팔로우/팔로워 분류)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 팔로우 테이블 만으로도 팔로잉/팔로워 모두 찾을 수 있으므로 추가하지 않음. 
+2) Nickname 쓰던거는 mno로 수정
+3) 임시 비밀번호 테이블 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토릴보드 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입 페이지, 비밀번호 찾기 페이지 수정 및 회원관리 설명 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,6 +383,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4488DC5C-8165-4B6D-9E75-2DE9A477EA70}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -953,6 +971,198 @@
       <c r="N6" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1588965-9389-408E-A795-515C42CAD7DF}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="10" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="43.5" customHeight="1">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="2:15">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49CCDD9-603C-4C6B-967D-3FD807A214DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E124BF6-D0A6-474F-88EF-4464E4EC06E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="1500" windowWidth="27690" windowHeight="13995" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="2024.02.01" sheetId="9" r:id="rId9"/>
     <sheet name="2024.02.02" sheetId="10" r:id="rId10"/>
     <sheet name="2024.02.05" sheetId="11" r:id="rId11"/>
+    <sheet name="2024.02.06" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +178,22 @@
   </si>
   <si>
     <t>회원 가입 페이지, 비밀번호 찾기 페이지 수정 및 회원관리 설명 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간발표 자료 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디비 설계 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입페이지 구현+프론트 컨트롤러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,6 +389,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -383,9 +403,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,20 +697,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -705,17 +722,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -723,17 +740,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -741,17 +758,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -759,17 +776,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -777,17 +794,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -795,17 +812,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -813,17 +830,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -860,20 +877,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -885,19 +902,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -907,19 +924,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -931,19 +948,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -955,19 +972,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="6" t="s">
         <v>7</v>
       </c>
@@ -977,17 +994,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -995,17 +1012,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1013,17 +1030,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1048,7 +1065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1588965-9389-408E-A795-515C42CAD7DF}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1060,20 +1077,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1085,23 +1102,23 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1109,23 +1126,23 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1133,17 +1150,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -1151,17 +1168,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -1169,17 +1186,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1187,17 +1204,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1205,17 +1222,213 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DB1565-B71E-46F9-B5FC-1FC0D023A609}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="10" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1251,20 +1464,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1276,19 +1489,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1298,19 +1511,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1320,19 +1533,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1342,17 +1555,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -1360,17 +1573,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1378,17 +1591,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1396,17 +1609,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1441,20 +1654,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1466,19 +1679,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1488,19 +1701,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1510,19 +1723,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1534,17 +1747,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -1552,17 +1765,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1570,17 +1783,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1588,17 +1801,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1634,20 +1847,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1659,19 +1872,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1681,19 +1894,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1705,17 +1918,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -1723,17 +1936,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -1741,17 +1954,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1759,17 +1972,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1777,17 +1990,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1819,20 +2032,20 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1844,19 +2057,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1866,19 +2079,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1888,19 +2101,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1910,17 +2123,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -1928,17 +2141,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1946,17 +2159,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1964,17 +2177,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2010,20 +2223,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2035,19 +2248,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2057,19 +2270,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2079,19 +2292,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2103,17 +2316,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -2121,17 +2334,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2139,17 +2352,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2157,17 +2370,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2203,20 +2416,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2228,19 +2441,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2250,19 +2463,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2272,19 +2485,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2294,17 +2507,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -2312,17 +2525,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2330,17 +2543,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2348,17 +2561,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2394,20 +2607,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2419,19 +2632,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2443,17 +2656,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="6"/>
       <c r="O4" s="11"/>
     </row>
@@ -2461,17 +2674,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -2479,17 +2692,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -2497,17 +2710,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2515,17 +2728,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2533,17 +2746,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2579,20 +2792,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2604,19 +2817,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2626,19 +2839,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2648,19 +2861,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2670,19 +2883,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="6" t="s">
         <v>7</v>
       </c>
@@ -2692,17 +2905,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2710,17 +2923,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2728,17 +2941,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E124BF6-D0A6-474F-88EF-4464E4EC06E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3D4E6A-C69C-495E-8C7B-5AD16298F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="1500" windowWidth="27690" windowHeight="13995" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="15" windowWidth="27690" windowHeight="13995" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="2024.02.02" sheetId="10" r:id="rId10"/>
     <sheet name="2024.02.05" sheetId="11" r:id="rId11"/>
     <sheet name="2024.02.06" sheetId="12" r:id="rId12"/>
+    <sheet name="2024.02.07" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +195,22 @@
   </si>
   <si>
     <t>가입페이지 구현+프론트 컨트롤러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간발표 후 멘토링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트 컨트롤러(경로 가상화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입페이지 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1257,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DB1565-B71E-46F9-B5FC-1FC0D023A609}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1394,6 +1411,206 @@
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA3CDF6-5875-424D-8FA7-AAC1A21C46BB}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="10" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="2:15">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3D4E6A-C69C-495E-8C7B-5AD16298F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3488B3ED-6D13-4A66-A7A9-DA7CFE971084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="15" windowWidth="27690" windowHeight="13995" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="27690" windowHeight="13995" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="2024.02.05" sheetId="11" r:id="rId11"/>
     <sheet name="2024.02.06" sheetId="12" r:id="rId12"/>
     <sheet name="2024.02.07" sheetId="13" r:id="rId13"/>
+    <sheet name="2024.02.08" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="42">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +212,10 @@
   </si>
   <si>
     <t>가입페이지 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입페이지/로그인 페이지 구현 1차(예외처리 없음)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1470,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA3CDF6-5875-424D-8FA7-AAC1A21C46BB}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -1659,6 +1664,181 @@
     <mergeCell ref="C5:M5"/>
     <mergeCell ref="C6:M6"/>
     <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBA2D9F-DE15-4DC8-806D-209D98F79671}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="10" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3488B3ED-6D13-4A66-A7A9-DA7CFE971084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ABC17D-78B0-4743-B6ED-806641D49400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="27690" windowHeight="13995" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="3480" windowWidth="21630" windowHeight="15405" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="2024.02.06" sheetId="12" r:id="rId12"/>
     <sheet name="2024.02.07" sheetId="13" r:id="rId13"/>
     <sheet name="2024.02.08" sheetId="14" r:id="rId14"/>
+    <sheet name="2024.02.13" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +217,18 @@
   </si>
   <si>
     <t>가입페이지/로그인 페이지 구현 1차(예외처리 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유틸 기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base62 엔코딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1675,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBA2D9F-DE15-4DC8-806D-209D98F79671}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -1839,6 +1852,204 @@
     <mergeCell ref="C5:M5"/>
     <mergeCell ref="C6:M6"/>
     <mergeCell ref="C4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C13C5C8-BE47-4A0E-A548-4A0B40B1C5A8}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="10" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C8:M8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ABC17D-78B0-4743-B6ED-806641D49400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3488B3ED-6D13-4A66-A7A9-DA7CFE971084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3480" windowWidth="21630" windowHeight="15405" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="27690" windowHeight="13995" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <sheet name="2024.02.06" sheetId="12" r:id="rId12"/>
     <sheet name="2024.02.07" sheetId="13" r:id="rId13"/>
     <sheet name="2024.02.08" sheetId="14" r:id="rId14"/>
-    <sheet name="2024.02.13" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="42">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,18 +216,6 @@
   </si>
   <si>
     <t>가입페이지/로그인 페이지 구현 1차(예외처리 없음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 찾기 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유틸 기능 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base62 엔코딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1688,7 +1675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBA2D9F-DE15-4DC8-806D-209D98F79671}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -1852,204 +1839,6 @@
     <mergeCell ref="C5:M5"/>
     <mergeCell ref="C6:M6"/>
     <mergeCell ref="C4:M4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C13C5C8-BE47-4A0E-A548-4A0B40B1C5A8}">
-  <dimension ref="B2:O9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="10" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="6.375" customWidth="1"/>
-    <col min="15" max="15" width="53.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="12"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="12"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C8:M8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ABC17D-78B0-4743-B6ED-806641D49400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722FB25B-CB15-4511-BFDB-34D920883913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3480" windowWidth="21630" windowHeight="15405" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6435" yWindow="825" windowWidth="25905" windowHeight="13995" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="2024.02.07" sheetId="13" r:id="rId13"/>
     <sheet name="2024.02.08" sheetId="14" r:id="rId14"/>
     <sheet name="2024.02.13" sheetId="15" r:id="rId15"/>
+    <sheet name="2024.02.14" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="47">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +230,14 @@
   </si>
   <si>
     <t>base62 엔코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 상세 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 전송이 너무 느려서 악의적 사용을 막기위해 쓰레드 풀을 사용함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1863,7 +1872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C13C5C8-BE47-4A0E-A548-4A0B40B1C5A8}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:M7"/>
     </sheetView>
   </sheetViews>
@@ -2050,6 +2059,200 @@
     <mergeCell ref="C5:M5"/>
     <mergeCell ref="C6:M6"/>
     <mergeCell ref="C8:M8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A530C3D9-A9E6-423D-8937-95BC54B4C9BE}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="10" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="15" max="15" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722FB25B-CB15-4511-BFDB-34D920883913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CBFF59-34E2-44BE-BAB9-C7449668A657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="825" windowWidth="25905" windowHeight="13995" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="255" windowWidth="25905" windowHeight="13995" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="2024.02.08" sheetId="14" r:id="rId14"/>
     <sheet name="2024.02.13" sheetId="15" r:id="rId15"/>
     <sheet name="2024.02.14" sheetId="16" r:id="rId16"/>
+    <sheet name="2024.02.15" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="48">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +239,10 @@
   </si>
   <si>
     <t>이메일 전송이 너무 느려서 악의적 사용을 막기위해 쓰레드 풀을 사용함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증 완료, 회원가입시 종합검사 및 인증데이터 삭제 남음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2070,7 +2075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A530C3D9-A9E6-423D-8937-95BC54B4C9BE}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -2253,6 +2258,147 @@
     <mergeCell ref="C5:M5"/>
     <mergeCell ref="C6:M6"/>
     <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC1B79F-A468-4E16-B039-47AA37C1E3A1}">
+  <dimension ref="B2:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CBFF59-34E2-44BE-BAB9-C7449668A657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A20393-2F07-49BF-B2BB-B306B8568B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="255" windowWidth="25905" windowHeight="13995" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="2024.02.13" sheetId="15" r:id="rId15"/>
     <sheet name="2024.02.14" sheetId="16" r:id="rId16"/>
     <sheet name="2024.02.15" sheetId="17" r:id="rId17"/>
+    <sheet name="2024.02.16" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="50">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +244,14 @@
   </si>
   <si>
     <t>이메일 인증 완료, 회원가입시 종합검사 및 인증데이터 삭제 남음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2267,9 +2276,9 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC1B79F-A468-4E16-B039-47AA37C1E3A1}">
-  <dimension ref="B2:M9"/>
+  <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -2351,6 +2360,153 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="8"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C30093-0A89-4F6C-A15E-99D2DE5A33C0}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:9">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A20393-2F07-49BF-B2BB-B306B8568B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B912FD5-63D4-40E4-95E5-F0D2A1631182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39915" yWindow="225" windowWidth="25905" windowHeight="13995" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="2024.02.14" sheetId="16" r:id="rId16"/>
     <sheet name="2024.02.15" sheetId="17" r:id="rId17"/>
     <sheet name="2024.02.16" sheetId="18" r:id="rId18"/>
+    <sheet name="2024.02.19" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +253,14 @@
   </si>
   <si>
     <t>멘토링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈뷰 1차완료(스크롤링시 다음페이지 데이터 가져오기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차는 팔로우 작업 이후에 작업할 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2419,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C30093-0A89-4F6C-A15E-99D2DE5A33C0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2507,6 +2516,147 @@
       <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5CA3AC-476C-43D8-BFFC-A7CD275A10A4}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:9">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B912FD5-63D4-40E4-95E5-F0D2A1631182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F5A547-A512-45E3-B6F8-37B0679EAC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39915" yWindow="225" windowWidth="25905" windowHeight="13995" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="2024.02.15" sheetId="17" r:id="rId17"/>
     <sheet name="2024.02.16" sheetId="18" r:id="rId18"/>
     <sheet name="2024.02.19" sheetId="19" r:id="rId19"/>
+    <sheet name="2024.02.20" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="56">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +262,23 @@
   </si>
   <si>
     <t>2차는 팔로우 작업 이후에 작업할 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 닉네임 검색(검색 기록 저장까지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈뷰 팝업 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현시 CSS가 꼬여서 SWIPER라이브러리 오동작함. (시간내에 구조 수정 불가능해보임)
+따라서홈뷰의 팝업은 포기함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2575,8 +2593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5CA3AC-476C-43D8-BFFC-A7CD275A10A4}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2902,6 +2920,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1680283-0FA8-49A3-BAAA-4C04D5C8BD12}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="2:9" ht="21">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2E1D05-84AC-4176-8C24-A60B89D4393D}">
   <dimension ref="B2:O9"/>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F5A547-A512-45E3-B6F8-37B0679EAC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2A9617-18BA-4450-A79D-966DD3276ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17700" yWindow="1050" windowWidth="25905" windowHeight="13995" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="2024.02.16" sheetId="18" r:id="rId18"/>
     <sheet name="2024.02.19" sheetId="19" r:id="rId19"/>
     <sheet name="2024.02.20" sheetId="20" r:id="rId20"/>
+    <sheet name="2024.02.21" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="61">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +280,26 @@
   <si>
     <t>구현시 CSS가 꼬여서 SWIPER라이브러리 오동작함. (시간내에 구조 수정 불가능해보임)
 따라서홈뷰의 팝업은 포기함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔로우 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔로우 알림 처리 작업 남음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔로우 알림 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 페이지 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 에러시 에러페이지로 이동후 1초 후에 루트경로로 이동(로그인)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,6 +509,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2924,7 +2948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1680283-0FA8-49A3-BAAA-4C04D5C8BD12}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -3011,6 +3035,157 @@
       <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06D743B-46C1-43FA-8BDD-6EBAF731190E}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2A9617-18BA-4450-A79D-966DD3276ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D9A87A-317F-4DD6-9446-DBB8BEE301E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="1050" windowWidth="25905" windowHeight="13995" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7755" yWindow="780" windowWidth="25905" windowHeight="13995" firstSheet="14" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="2024.02.19" sheetId="19" r:id="rId19"/>
     <sheet name="2024.02.20" sheetId="20" r:id="rId20"/>
     <sheet name="2024.02.21" sheetId="21" r:id="rId21"/>
+    <sheet name="2024.02.22" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="64">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +301,18 @@
   </si>
   <si>
     <t>500 에러시 에러페이지로 이동후 1초 후에 루트경로로 이동(로그인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔로우 알람 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최종 발표 PPT </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,6 +511,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -509,9 +525,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,20 +819,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -831,17 +844,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -849,17 +862,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -867,17 +880,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -885,17 +898,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -903,17 +916,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -921,17 +934,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -939,17 +952,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -986,20 +999,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1011,19 +1024,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1033,19 +1046,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1057,19 +1070,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1081,19 +1094,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1103,17 +1116,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1121,17 +1134,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1139,17 +1152,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1186,20 +1199,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1211,19 +1224,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1235,19 +1248,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1259,17 +1272,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -1277,17 +1290,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -1295,17 +1308,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1313,17 +1326,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1331,17 +1344,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1378,20 +1391,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1403,19 +1416,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1425,19 +1438,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1447,19 +1460,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1469,19 +1482,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1491,17 +1504,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1509,17 +1522,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1527,17 +1540,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1574,20 +1587,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1599,19 +1612,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1621,19 +1634,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1643,19 +1656,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1665,19 +1678,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1687,19 +1700,19 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1709,17 +1722,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1727,17 +1740,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1774,20 +1787,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1799,19 +1812,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1821,19 +1834,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1843,17 +1856,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -1861,17 +1874,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -1885,17 +1898,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1903,17 +1916,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1949,20 +1962,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1974,19 +1987,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1996,19 +2009,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="8" t="s">
         <v>6</v>
       </c>
@@ -2018,19 +2031,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="8" t="s">
         <v>6</v>
       </c>
@@ -2042,19 +2055,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="8" t="s">
         <v>7</v>
       </c>
@@ -2064,17 +2077,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="8"/>
       <c r="O7" s="7"/>
     </row>
@@ -2082,17 +2095,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2100,17 +2113,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2147,20 +2160,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2172,19 +2185,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2194,19 +2207,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="8" t="s">
         <v>6</v>
       </c>
@@ -2218,19 +2231,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="8" t="s">
         <v>7</v>
       </c>
@@ -2240,17 +2253,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="8"/>
       <c r="O6" s="7"/>
     </row>
@@ -2258,17 +2271,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="8"/>
       <c r="O7" s="7"/>
     </row>
@@ -2276,17 +2289,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2294,17 +2307,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2340,14 +2353,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2359,13 +2372,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2375,13 +2388,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>7</v>
       </c>
@@ -2393,11 +2406,11 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8"/>
       <c r="I5" s="12"/>
     </row>
@@ -2405,11 +2418,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="7"/>
     </row>
@@ -2417,11 +2430,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -2429,11 +2442,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2441,11 +2454,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -2481,14 +2494,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2500,13 +2513,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2516,13 +2529,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>6</v>
       </c>
@@ -2532,13 +2545,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8" t="s">
         <v>7</v>
       </c>
@@ -2548,13 +2561,13 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2564,11 +2577,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -2576,11 +2589,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2588,11 +2601,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -2628,14 +2641,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2647,13 +2660,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2663,13 +2676,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>6</v>
       </c>
@@ -2681,11 +2694,11 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8"/>
       <c r="I5" s="12"/>
     </row>
@@ -2693,11 +2706,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="7"/>
     </row>
@@ -2705,11 +2718,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -2717,11 +2730,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2729,11 +2742,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -2769,20 +2782,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2794,19 +2807,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2816,19 +2829,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2838,19 +2851,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
@@ -2860,17 +2873,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -2878,17 +2891,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -2896,17 +2909,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -2914,17 +2927,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -2959,14 +2972,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2978,13 +2991,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2994,13 +3007,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>6</v>
       </c>
@@ -3010,13 +3023,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8" t="s">
         <v>54</v>
       </c>
@@ -3028,11 +3041,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="7"/>
     </row>
@@ -3040,11 +3053,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -3052,11 +3065,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -3064,11 +3077,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -3093,7 +3106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06D743B-46C1-43FA-8BDD-6EBAF731190E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -3104,14 +3117,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3123,13 +3136,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
@@ -3139,13 +3152,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>6</v>
       </c>
@@ -3157,13 +3170,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8" t="s">
         <v>54</v>
       </c>
@@ -3173,17 +3186,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3191,11 +3204,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -3203,11 +3216,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -3215,11 +3228,158 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -3255,20 +3415,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3280,19 +3440,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -3302,19 +3462,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -3324,19 +3484,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="6" t="s">
         <v>12</v>
       </c>
@@ -3348,17 +3508,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -3366,17 +3526,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -3384,17 +3544,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -3402,17 +3562,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -3448,20 +3608,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3473,19 +3633,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -3495,19 +3655,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="6" t="s">
         <v>14</v>
       </c>
@@ -3519,17 +3679,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -3537,17 +3697,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -3555,17 +3715,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -3573,17 +3733,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -3591,17 +3751,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -3633,20 +3793,20 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3658,19 +3818,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -3680,19 +3840,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -3702,19 +3862,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
@@ -3724,17 +3884,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -3742,17 +3902,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -3760,17 +3920,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -3778,17 +3938,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -3824,20 +3984,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3849,19 +4009,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -3871,19 +4031,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -3893,19 +4053,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
@@ -3917,17 +4077,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -3935,17 +4095,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -3953,17 +4113,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -3971,17 +4131,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -4017,20 +4177,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4042,19 +4202,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -4064,19 +4224,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4086,19 +4246,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
@@ -4108,17 +4268,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -4126,17 +4286,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -4144,17 +4304,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -4162,17 +4322,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -4208,20 +4368,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4233,19 +4393,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -4257,17 +4417,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="6"/>
       <c r="O4" s="11"/>
     </row>
@@ -4275,17 +4435,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -4293,17 +4453,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -4311,17 +4471,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -4329,17 +4489,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -4347,17 +4507,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -4393,20 +4553,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4418,19 +4578,19 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -4440,19 +4600,19 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="6" t="s">
         <v>6</v>
       </c>
@@ -4462,19 +4622,19 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
@@ -4484,19 +4644,19 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="6" t="s">
         <v>7</v>
       </c>
@@ -4506,17 +4666,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -4524,17 +4684,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -4542,17 +4702,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
